--- a/medicine/Handicap/Journey_into_Light/Journey_into_Light.xlsx
+++ b/medicine/Handicap/Journey_into_Light/Journey_into_Light.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Journey into Light est un film américain réalisé par Stuart Heisler, sorti en 1951.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John Burrows est un pasteur ordonné d'un petit village de le la Côte Est, qui s'imagine être à la tête d'une congrégation plus nombreuse en termes de fidèles. Il est mortifié lorsque sa femme, totalement ivre, interrompt un de ses sermon, avat de se suicider.
 Burrows se rend à Los Angeles pour prendre un nouveau départ mais il se retrouve dans les bas-fonds et est arrêté pour ivresse publique. Un escroc notoire, Gandy, lui trouve un lit dans une maison de passe, tandis qu'un prédicateur de rue, Doc Thorssen, et sa fille Christine l'emmènent dans une mission locale.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Journey Into Light
 Réalisation : Stuart Heisler
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sterling Hayden : révérend John Burrows
